--- a/_Out/Server/NFDataCfg/Excel_Ini/Hero.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Hero.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,85 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero1_skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero2_skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero3_skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero1_skill4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero2_skill4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero3_skill4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero3_skill3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero2_skill3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero1_skill3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero1_skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero2_skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero3_skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,77 +491,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
